--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,41 @@
         <v>252800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>171000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,41 @@
         <v>171000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>319200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,41 @@
         <v>319200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>434200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43712,6 +43712,41 @@
         <v>434200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>180700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,41 @@
         <v>180700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>80400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,41 @@
         <v>80400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>270700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43817,6 +43817,41 @@
         <v>270700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>314000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43852,6 +43852,41 @@
         <v>314000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>259600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43887,6 +43887,41 @@
         <v>259600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>107000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43922,6 +43922,41 @@
         <v>107000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>253800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43957,6 +43957,41 @@
         <v>253800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>346900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43992,6 +43992,41 @@
         <v>346900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>177200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44027,6 +44027,76 @@
         <v>177200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>451900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>461000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44097,6 +44097,76 @@
         <v>461000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>609500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1000700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44167,6 +44167,41 @@
         <v>1000700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>872700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44202,6 +44202,41 @@
         <v>872700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>324000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44237,6 +44237,41 @@
         <v>324000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1124900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44272,6 +44272,41 @@
         <v>1124900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>823900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44307,6 +44307,76 @@
         <v>823900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>680600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>542000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44377,6 +44377,41 @@
         <v>542000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>990600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44412,6 +44412,41 @@
         <v>990600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>784400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1672"/>
+  <dimension ref="A1:I1673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59532,6 +59532,41 @@
         <v>784400</v>
       </c>
     </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1673" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>634700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1673"/>
+  <dimension ref="A1:I1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59567,6 +59567,41 @@
         <v>634700</v>
       </c>
     </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1674" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>1061800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1674"/>
+  <dimension ref="A1:I1675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59602,6 +59602,41 @@
         <v>1061800</v>
       </c>
     </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1675" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>911400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1675"/>
+  <dimension ref="A1:I1676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59637,6 +59637,41 @@
         <v>911400</v>
       </c>
     </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1676" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>839400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1676"/>
+  <dimension ref="A1:I1677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59672,6 +59672,41 @@
         <v>839400</v>
       </c>
     </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1677" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>940900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1677"/>
+  <dimension ref="A1:I1678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59707,6 +59707,41 @@
         <v>940900</v>
       </c>
     </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1678" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>767400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1678"/>
+  <dimension ref="A1:I1679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59742,6 +59742,41 @@
         <v>767400</v>
       </c>
     </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1679" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>1449000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1679"/>
+  <dimension ref="A1:I1680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59777,6 +59777,41 @@
         <v>1449000</v>
       </c>
     </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1680" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>625800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1680"/>
+  <dimension ref="A1:I1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59812,6 +59812,41 @@
         <v>625800</v>
       </c>
     </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1681" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>465800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1681"/>
+  <dimension ref="A1:I1682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59847,6 +59847,41 @@
         <v>465800</v>
       </c>
     </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1682" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>1236500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1682"/>
+  <dimension ref="A1:I1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59882,6 +59882,41 @@
         <v>1236500</v>
       </c>
     </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1683" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>1807600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1683"/>
+  <dimension ref="A1:I1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59917,6 +59917,41 @@
         <v>1807600</v>
       </c>
     </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1684" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>757100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1684"/>
+  <dimension ref="A1:I1685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59952,6 +59952,41 @@
         <v>757100</v>
       </c>
     </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1685" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>362900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1685"/>
+  <dimension ref="A1:I1686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59987,6 +59987,41 @@
         <v>362900</v>
       </c>
     </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1686" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>505000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1686"/>
+  <dimension ref="A1:I1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60022,6 +60022,41 @@
         <v>505000</v>
       </c>
     </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E1687" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>863500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2281"/>
+  <dimension ref="A1:I2282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80847,6 +80847,41 @@
         <v>863500</v>
       </c>
     </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I2282" t="n">
+        <v>749300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2282"/>
+  <dimension ref="A1:I2283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80882,6 +80882,41 @@
         <v>749300</v>
       </c>
     </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I2283" t="n">
+        <v>435400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2283"/>
+  <dimension ref="A1:I2284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80917,6 +80917,41 @@
         <v>435400</v>
       </c>
     </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2284" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H2284" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I2284" t="n">
+        <v>755300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2284"/>
+  <dimension ref="A1:I2285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80952,6 +80952,41 @@
         <v>755300</v>
       </c>
     </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I2285" t="n">
+        <v>915300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2285"/>
+  <dimension ref="A1:I2286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80987,6 +80987,41 @@
         <v>915300</v>
       </c>
     </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I2286" t="n">
+        <v>902200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2286"/>
+  <dimension ref="A1:I2287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81022,6 +81022,41 @@
         <v>902200</v>
       </c>
     </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I2287" t="n">
+        <v>357000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2287"/>
+  <dimension ref="A1:I2288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81057,6 +81057,41 @@
         <v>357000</v>
       </c>
     </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I2288" t="n">
+        <v>440900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2288"/>
+  <dimension ref="A1:I2289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81092,6 +81092,41 @@
         <v>440900</v>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I2289" t="n">
+        <v>567200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2289"/>
+  <dimension ref="A1:I2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81127,6 +81127,41 @@
         <v>567200</v>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I2290" t="n">
+        <v>591500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2290"/>
+  <dimension ref="A1:I2291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81162,6 +81162,41 @@
         <v>591500</v>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I2291" t="n">
+        <v>609000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2291"/>
+  <dimension ref="A1:I2293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81197,6 +81197,76 @@
         <v>609000</v>
       </c>
     </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2292" t="n">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I2293" t="n">
+        <v>718700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2293"/>
+  <dimension ref="A1:I2294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81267,6 +81267,41 @@
         <v>718700</v>
       </c>
     </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I2294" t="n">
+        <v>538000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81302,6 +81302,111 @@
         <v>538000</v>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>452800</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>512000</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>497000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2297"/>
+  <dimension ref="A1:I2298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81407,6 +81407,41 @@
         <v>497000</v>
       </c>
     </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I2298" t="n">
+        <v>395100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2298"/>
+  <dimension ref="A1:I2299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81442,6 +81442,41 @@
         <v>395100</v>
       </c>
     </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>249000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7222.xlsx
+++ b/data/7222.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2299"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81477,6 +81477,111 @@
         <v>249000</v>
       </c>
     </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I2300" t="n">
+        <v>478000</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>559600</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>IMASPRO</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>357000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
